--- a/biology/Biologie cellulaire et moléculaire/Bénédicte_Michel/Bénédicte_Michel.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Bénédicte_Michel/Bénédicte_Michel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Michel</t>
+          <t>Bénédicte_Michel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bénédicte Michel, née en 1955, est une biochimiste et directrice de recherches française, spécialiste de l'ADN. Elle reçoit la médaille d'argent du CNRS en 2002.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Michel</t>
+          <t>Bénédicte_Michel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bénédicte Michel fait ses études de biochimie à l'Université Pierre-et-Marie-Curie. Elle mène des recherches sur la recombinaison génétique des bactéries bacillus subtilis et Escherichia coli sous la direction de Stanislav Dusko Ehrlich et y soutient sa thèse en 1986[1]. En 2011, elle décroche son habilitation universitaire toujours à l'Université Pierre et Marie Curie[2].
-Dans les années 1990, elle travaille à l'Institut national de la recherche agronomique[3].
-Ses travaux portent sur la réplication de l'ADN[4] et sur la réparation de l'ADN et notamment la réparation SOS[5]. Elle s'intéresse également aux protéines recombinantes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bénédicte Michel fait ses études de biochimie à l'Université Pierre-et-Marie-Curie. Elle mène des recherches sur la recombinaison génétique des bactéries bacillus subtilis et Escherichia coli sous la direction de Stanislav Dusko Ehrlich et y soutient sa thèse en 1986. En 2011, elle décroche son habilitation universitaire toujours à l'Université Pierre et Marie Curie.
+Dans les années 1990, elle travaille à l'Institut national de la recherche agronomique.
+Ses travaux portent sur la réplication de l'ADN et sur la réparation de l'ADN et notamment la réparation SOS. Elle s'intéresse également aux protéines recombinantes.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Michel</t>
+          <t>Bénédicte_Michel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2007 : Prix Bettencourt « Coups d’élan pour la recherche française de la fondation Bettencourt-Schueller[3]
-2002 : médaille d'argent du CNRS[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2007 : Prix Bettencourt « Coups d’élan pour la recherche française de la fondation Bettencourt-Schueller
+2002 : médaille d'argent du CNRS</t>
         </is>
       </c>
     </row>
